--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3966011.828352652</v>
+        <v>3963470.196758973</v>
       </c>
     </row>
     <row r="7">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72734108435057</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>133.8333590606436</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.58439354511546</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>29.00708539155863</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.76978256391634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537563</v>
+        <v>122.1363258044081</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537563</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537563</v>
+        <v>349.2299344537561</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537561</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.0634900260875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>158.45425769853</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>152.6613519144014</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419592</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>154.4236315138827</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>257.4653373190583</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>405.3232974734211</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>103.4921776764807</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>185.8117135907286</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0573374602128</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319667</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>41.01175877060096</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>730.1757415093712</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>540.7559564928861</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477794</v>
+        <v>351.336171476401</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312947</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>224.59746731481</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>709.1080117510214</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>709.1080117510214</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>560.1736020897702</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>709.1080117510214</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.5459632968225</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="C4" t="n">
-        <v>340.5459632968225</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="D4" t="n">
-        <v>340.5459632968225</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="E4" t="n">
-        <v>340.5459632968225</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="F4" t="n">
-        <v>193.6560157989121</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="G4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745586</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>465.2530182692156</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287306</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768591</v>
+        <v>423.1417032603754</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768591</v>
+        <v>423.1417032603754</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768591</v>
+        <v>423.1417032603754</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768591</v>
+        <v>233.7219182438903</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1417032603744</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.5459632968225</v>
+        <v>44.30213322740525</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>746.1182989464961</v>
+        <v>707.6667019626902</v>
       </c>
       <c r="C5" t="n">
-        <v>746.1182989464961</v>
+        <v>707.6667019626902</v>
       </c>
       <c r="D5" t="n">
-        <v>746.1182989464961</v>
+        <v>707.6667019626902</v>
       </c>
       <c r="E5" t="n">
-        <v>393.3607893972473</v>
+        <v>707.6667019626902</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799848</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563005</v>
+        <v>342.2443073217437</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874722</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620549</v>
+        <v>211.2396305620537</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458685</v>
+        <v>409.7273242458673</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973848</v>
+        <v>662.2525653973842</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365777</v>
+        <v>923.477737336577</v>
       </c>
       <c r="O5" t="n">
         <v>1156.809998477536</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169738</v>
+        <v>1321.452684169737</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815025</v>
+        <v>831.0367280277489</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815025</v>
+        <v>831.0367280277489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1098.875808495745</v>
+        <v>831.0367280277489</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>631.6297684230863</v>
+        <v>423.3520700478215</v>
       </c>
       <c r="C6" t="n">
-        <v>457.1767391419593</v>
+        <v>423.3520700478215</v>
       </c>
       <c r="D6" t="n">
-        <v>457.1767391419593</v>
+        <v>423.3520700478215</v>
       </c>
       <c r="E6" t="n">
-        <v>302.9733533698367</v>
+        <v>264.114615042366</v>
       </c>
       <c r="F6" t="n">
-        <v>302.9733533698367</v>
+        <v>264.114615042366</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290006</v>
+        <v>126.8778690015299</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377114</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143089</v>
+        <v>165.5479665784356</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100563</v>
+        <v>265.5449014249421</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545688</v>
+        <v>446.3256618694546</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879807</v>
+        <v>676.6451506028666</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668854</v>
+        <v>927.4691557817713</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459969</v>
+        <v>1201.587633459968</v>
       </c>
       <c r="P6" t="n">
         <v>1348.579058983953</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="R6" t="n">
         <v>1388.514189308346</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.84871388043</v>
+        <v>1242.848713880429</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.84871388043</v>
+        <v>1046.684307603441</v>
       </c>
       <c r="U6" t="n">
-        <v>1242.84871388043</v>
+        <v>818.5589840356553</v>
       </c>
       <c r="V6" t="n">
-        <v>1007.696605648687</v>
+        <v>583.4068758039125</v>
       </c>
       <c r="W6" t="n">
-        <v>1007.696605648687</v>
+        <v>583.4068758039125</v>
       </c>
       <c r="X6" t="n">
-        <v>799.8451054431544</v>
+        <v>583.4068758039125</v>
       </c>
       <c r="Y6" t="n">
-        <v>799.8451054431544</v>
+        <v>583.4068758039125</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.8745776842074</v>
+        <v>196.3736667342185</v>
       </c>
       <c r="C7" t="n">
-        <v>27.9383947563005</v>
+        <v>196.3736667342185</v>
       </c>
       <c r="D7" t="n">
-        <v>27.9383947563005</v>
+        <v>196.3736667342185</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9383947563005</v>
+        <v>196.3736667342185</v>
       </c>
       <c r="F7" t="n">
-        <v>27.9383947563005</v>
+        <v>196.3736667342185</v>
       </c>
       <c r="G7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="H7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="I7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630049</v>
       </c>
       <c r="K7" t="n">
         <v>148.5233105874692</v>
@@ -4747,28 +4747,28 @@
         <v>1182.690698049273</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950958</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049273</v>
+        <v>1059.927283950958</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049273</v>
+        <v>835.0311720137619</v>
       </c>
       <c r="U7" t="n">
-        <v>922.6247007572946</v>
+        <v>835.0311720137619</v>
       </c>
       <c r="V7" t="n">
-        <v>667.9402125514077</v>
+        <v>580.346683807875</v>
       </c>
       <c r="W7" t="n">
-        <v>378.5230425144471</v>
+        <v>580.346683807875</v>
       </c>
       <c r="X7" t="n">
-        <v>378.5230425144471</v>
+        <v>352.3571329098577</v>
       </c>
       <c r="Y7" t="n">
-        <v>378.5230425144471</v>
+        <v>352.3571329098577</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.040280862504</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C8" t="n">
-        <v>1682.077763922092</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.812065315341</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>938.0238127170971</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>527.0379079274896</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2249.056133797414</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1896.2874785273</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1522.82172026622</v>
       </c>
       <c r="Y8" t="n">
-        <v>2437.640120926626</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925521</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101683</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2318.56978993398</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,25 +5288,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,10 +6953,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,52 +7172,52 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.17510664033</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7673,22 +7673,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637304</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444888</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684175</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484648</v>
+        <v>99.67938739117049</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213322</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>67.55889958092251</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.7511347056865</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460251</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>99.28295407562292</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635891.761684911</v>
+        <v>635891.7616849109</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618168.7730327632</v>
+        <v>618168.7730327633</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.769864284</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642835</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900056</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427123</v>
+        <v>178997.5061427118</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731202</v>
+        <v>301519.8707731204</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854466</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267294</v>
+        <v>41617.52445267273</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.3024001953</v>
+        <v>73739.30240019542</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806966</v>
+        <v>229588.1389806967</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26430,34 +26430,34 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029182</v>
+        <v>69851.9793002918</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104771.7814988887</v>
+        <v>-104771.7814988884</v>
       </c>
       <c r="C6" t="n">
-        <v>342604.1454405824</v>
+        <v>342604.1454405831</v>
       </c>
       <c r="D6" t="n">
-        <v>281428.89595338</v>
+        <v>281428.8959533802</v>
       </c>
       <c r="E6" t="n">
-        <v>184931.8201297097</v>
+        <v>184897.0822042743</v>
       </c>
       <c r="F6" t="n">
-        <v>692417.261754256</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.2617542557</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="H6" t="n">
-        <v>692417.2617542562</v>
+        <v>692382.5238288203</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542564</v>
+        <v>692382.5238288204</v>
       </c>
       <c r="J6" t="n">
-        <v>643352.317025712</v>
+        <v>643317.5791002759</v>
       </c>
       <c r="K6" t="n">
-        <v>650799.7373015834</v>
+        <v>650764.9993761479</v>
       </c>
       <c r="L6" t="n">
-        <v>618677.9593540609</v>
+        <v>618643.2214286254</v>
       </c>
       <c r="M6" t="n">
-        <v>559809.9680253298</v>
+        <v>559775.2300998942</v>
       </c>
       <c r="N6" t="n">
-        <v>692417.2617542564</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="O6" t="n">
-        <v>692417.2617542563</v>
+        <v>692382.5238288206</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542562</v>
+        <v>692382.5238288208</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>687.6696919955707</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537563</v>
+        <v>349.2299344537561</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26799,13 +26799,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>5.945547374992251e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826661</v>
+        <v>139.1997510826658</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219684</v>
+        <v>246.3952001219685</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874359</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.3548976462828</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874356</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.354897646283</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874359</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.3548976462828</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>139.0484721057025</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988656</v>
       </c>
       <c r="U2" t="n">
-        <v>117.3359015043867</v>
+        <v>63.64367339871013</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482486</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.0983022321889</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>137.9948498111555</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632377989</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271729</v>
+        <v>38.18406822271695</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.8148707881784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972428</v>
+        <v>260.5975158590725</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850548</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795514</v>
+        <v>57.64611128795536</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>103.8974541908713</v>
@@ -27667,7 +27667,7 @@
         <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365693849</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>91.17444862996609</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.078925951337311</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>4.983728540999579</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419592</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>25.40834866805457</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>28.78605239559698</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>6.224405299532862</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>147.5530724519813</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>100.415440530472</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.52731589188195</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.077696578835832e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>300.554366381493</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768135</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551114</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,34 +34448,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005474</v>
+        <v>123.3445726863788</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669736</v>
+        <v>138.9995674971062</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167933</v>
+        <v>101.0070048954611</v>
       </c>
       <c r="L6" t="n">
         <v>182.6068287318308</v>
@@ -35027,7 +35027,7 @@
         <v>253.3575809887926</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091756</v>
+        <v>276.8873511900981</v>
       </c>
       <c r="P6" t="n">
         <v>148.4761873979637</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.231857036541</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,7 +35504,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>161.9999866016188</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969401</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075244</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
